--- a/app/data/mapping/Location.xlsx
+++ b/app/data/mapping/Location.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10610"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lotus/Desktop/Insubria University/ESR4/Project/ExtendPro1/ExtendProfBarbaraIdea/NewStaticAnalysis/NewFunctionMapping/ServiceProvider/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/a1234/individual/abc/project-1-web/app/data/mapping/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{784298F4-958A-B242-9108-F4B7BAAEB4E4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{580D7953-9134-D048-97D7-09992CA2C9CB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="15000" activeTab="1" xr2:uid="{024ABADC-B206-6348-BAB3-22BEF9B6C57B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{024ABADC-B206-6348-BAB3-22BEF9B6C57B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -7480,20 +7480,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B360211C-0CE5-8A4D-B4B1-F823D1E1781D}">
   <dimension ref="A1:I1276"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A777" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E573" sqref="E573:G813"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1236" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="5.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="81.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="51" style="1" customWidth="1"/>
+    <col min="3" max="3" width="58" style="1" customWidth="1"/>
+    <col min="4" max="4" width="56.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="56.33203125" style="1" customWidth="1"/>
     <col min="6" max="6" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="10.83203125" style="1"/>
+    <col min="7" max="7" width="48.1640625" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -35730,20 +35731,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C7C32FF-D2A4-9F47-B4C6-DD9B5F14AD17}">
   <dimension ref="A1:XFD1276"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A81" sqref="A1:C241"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A73" sqref="A73"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="81.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.6640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="16384" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.83203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="13.5" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="4:16384" x14ac:dyDescent="0.2">
+    <row r="1" spans="4:16384" x14ac:dyDescent="0.15">
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
@@ -52126,4551 +52128,4551 @@
       <c r="XFC1" s="2"/>
       <c r="XFD1" s="2"/>
     </row>
-    <row r="180" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D180"/>
     </row>
-    <row r="181" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D181"/>
     </row>
-    <row r="182" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D182"/>
     </row>
-    <row r="183" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D183"/>
     </row>
-    <row r="184" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D184"/>
     </row>
-    <row r="185" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D185"/>
     </row>
-    <row r="186" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D186"/>
     </row>
-    <row r="187" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D187"/>
     </row>
-    <row r="188" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D188"/>
     </row>
-    <row r="189" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D189"/>
     </row>
-    <row r="190" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D190"/>
     </row>
-    <row r="191" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D191"/>
     </row>
-    <row r="192" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D192"/>
     </row>
-    <row r="193" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D193"/>
     </row>
-    <row r="194" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D194"/>
     </row>
-    <row r="195" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D195"/>
     </row>
-    <row r="196" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D196"/>
     </row>
-    <row r="197" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D197"/>
     </row>
-    <row r="198" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D198"/>
     </row>
-    <row r="199" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D199"/>
     </row>
-    <row r="200" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D200"/>
     </row>
-    <row r="201" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D201"/>
     </row>
-    <row r="202" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D202"/>
     </row>
-    <row r="203" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D203"/>
     </row>
-    <row r="204" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D204"/>
     </row>
-    <row r="205" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D205"/>
     </row>
-    <row r="206" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D206"/>
     </row>
-    <row r="207" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D207"/>
     </row>
-    <row r="208" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D208"/>
     </row>
-    <row r="209" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D209"/>
     </row>
-    <row r="210" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D210"/>
     </row>
-    <row r="211" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D211"/>
     </row>
-    <row r="212" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D212"/>
     </row>
-    <row r="213" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D213"/>
     </row>
-    <row r="214" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D214"/>
     </row>
-    <row r="215" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D215"/>
     </row>
-    <row r="216" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D216"/>
     </row>
-    <row r="217" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D217"/>
     </row>
-    <row r="218" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D218"/>
     </row>
-    <row r="219" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D219"/>
     </row>
-    <row r="220" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D220"/>
     </row>
-    <row r="221" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D221"/>
     </row>
-    <row r="222" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D222"/>
     </row>
-    <row r="223" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D223"/>
     </row>
-    <row r="224" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D224"/>
     </row>
-    <row r="225" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D225"/>
     </row>
-    <row r="226" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D226"/>
     </row>
-    <row r="227" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D227"/>
     </row>
-    <row r="228" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D228"/>
     </row>
-    <row r="229" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D229"/>
     </row>
-    <row r="230" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D230"/>
     </row>
-    <row r="231" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D231"/>
     </row>
-    <row r="232" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D232"/>
     </row>
-    <row r="233" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D233"/>
     </row>
-    <row r="234" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D234"/>
     </row>
-    <row r="235" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D235"/>
     </row>
-    <row r="236" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D236"/>
     </row>
-    <row r="237" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D237"/>
     </row>
-    <row r="238" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D238"/>
     </row>
-    <row r="239" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D239"/>
     </row>
-    <row r="240" spans="4:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="4:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D240"/>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="D241"/>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A242"/>
       <c r="B242"/>
       <c r="D242"/>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A243"/>
       <c r="B243"/>
       <c r="D243"/>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A244"/>
       <c r="B244"/>
       <c r="D244"/>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A245"/>
       <c r="B245"/>
       <c r="D245"/>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A246"/>
       <c r="B246"/>
       <c r="D246"/>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A247"/>
       <c r="B247"/>
       <c r="D247"/>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A248"/>
       <c r="B248"/>
       <c r="D248"/>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A249"/>
       <c r="B249"/>
       <c r="D249"/>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A250"/>
       <c r="B250"/>
       <c r="D250"/>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A251"/>
       <c r="B251"/>
       <c r="D251"/>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A252"/>
       <c r="B252"/>
       <c r="D252"/>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A253"/>
       <c r="B253"/>
       <c r="D253"/>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A254"/>
       <c r="B254"/>
       <c r="D254"/>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A255"/>
       <c r="B255"/>
       <c r="D255"/>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A256"/>
       <c r="B256"/>
       <c r="D256"/>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A257"/>
       <c r="B257"/>
       <c r="D257"/>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A258"/>
       <c r="B258"/>
       <c r="D258"/>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A259"/>
       <c r="B259"/>
       <c r="D259"/>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A260"/>
       <c r="B260"/>
       <c r="D260"/>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A261"/>
       <c r="B261"/>
       <c r="D261"/>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A262"/>
       <c r="B262"/>
       <c r="D262"/>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A263"/>
       <c r="B263"/>
       <c r="D263"/>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A264"/>
       <c r="B264"/>
       <c r="D264"/>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A265"/>
       <c r="B265"/>
       <c r="D265"/>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A266"/>
       <c r="B266"/>
       <c r="D266"/>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A267"/>
       <c r="B267"/>
       <c r="D267"/>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A268"/>
       <c r="B268"/>
       <c r="D268"/>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A269"/>
       <c r="B269"/>
       <c r="D269"/>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A270"/>
       <c r="B270"/>
       <c r="D270"/>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A271"/>
       <c r="B271"/>
       <c r="D271"/>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A272"/>
       <c r="B272"/>
       <c r="D272"/>
     </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A273"/>
       <c r="B273"/>
       <c r="D273"/>
     </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A274"/>
       <c r="B274"/>
       <c r="D274"/>
     </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A275"/>
       <c r="B275"/>
       <c r="D275"/>
     </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A276"/>
       <c r="B276"/>
       <c r="D276"/>
     </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A277"/>
       <c r="B277"/>
       <c r="D277"/>
     </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A278"/>
       <c r="B278"/>
       <c r="D278"/>
     </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A279"/>
       <c r="B279"/>
       <c r="D279"/>
     </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A280"/>
       <c r="B280"/>
       <c r="D280"/>
     </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A281"/>
       <c r="B281"/>
       <c r="D281"/>
     </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A282"/>
       <c r="B282"/>
       <c r="D282"/>
     </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A283"/>
       <c r="B283"/>
       <c r="D283"/>
     </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A284"/>
       <c r="B284"/>
       <c r="D284"/>
     </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A285"/>
       <c r="B285"/>
       <c r="D285"/>
     </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A286"/>
       <c r="B286"/>
       <c r="D286"/>
     </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A287"/>
       <c r="B287"/>
       <c r="D287"/>
     </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A288"/>
       <c r="B288"/>
       <c r="D288"/>
     </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A289"/>
       <c r="B289"/>
       <c r="D289"/>
     </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A290"/>
       <c r="B290"/>
       <c r="D290"/>
     </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A291"/>
       <c r="B291"/>
       <c r="D291"/>
     </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A292"/>
       <c r="B292"/>
       <c r="D292"/>
     </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A293"/>
       <c r="B293"/>
       <c r="D293"/>
     </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A294"/>
       <c r="B294"/>
       <c r="D294"/>
     </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A295"/>
       <c r="B295"/>
       <c r="D295"/>
     </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A296"/>
       <c r="B296"/>
       <c r="D296"/>
     </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A297"/>
       <c r="B297"/>
       <c r="D297"/>
     </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A298"/>
       <c r="B298"/>
       <c r="D298"/>
     </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A299"/>
       <c r="B299"/>
       <c r="D299"/>
     </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A300"/>
       <c r="B300"/>
       <c r="D300"/>
     </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A301"/>
       <c r="B301"/>
       <c r="D301"/>
     </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A302"/>
       <c r="B302"/>
       <c r="D302"/>
     </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A303"/>
       <c r="B303"/>
       <c r="D303"/>
     </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A304"/>
       <c r="B304"/>
       <c r="D304"/>
     </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A305"/>
       <c r="B305"/>
       <c r="D305"/>
     </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A306"/>
       <c r="B306"/>
       <c r="D306"/>
     </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A307"/>
       <c r="B307"/>
       <c r="D307"/>
     </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A308"/>
       <c r="B308"/>
       <c r="D308"/>
     </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A309"/>
       <c r="B309"/>
       <c r="D309"/>
     </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A310"/>
       <c r="B310"/>
       <c r="D310"/>
     </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A311"/>
       <c r="B311"/>
       <c r="D311"/>
     </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A312"/>
       <c r="B312"/>
       <c r="D312"/>
     </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A313"/>
       <c r="B313"/>
       <c r="D313"/>
     </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A314"/>
       <c r="B314"/>
       <c r="D314"/>
     </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A315"/>
       <c r="B315"/>
       <c r="D315"/>
     </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A316"/>
       <c r="B316"/>
       <c r="D316"/>
     </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A317"/>
       <c r="B317"/>
       <c r="D317"/>
     </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A318"/>
       <c r="B318"/>
       <c r="D318"/>
     </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A319"/>
       <c r="B319"/>
       <c r="D319"/>
     </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A320"/>
       <c r="B320"/>
       <c r="D320"/>
     </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A321"/>
       <c r="B321"/>
       <c r="D321"/>
     </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A322"/>
       <c r="B322"/>
       <c r="D322"/>
     </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A323"/>
       <c r="B323"/>
       <c r="D323"/>
     </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A324"/>
       <c r="B324"/>
       <c r="D324"/>
     </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A325"/>
       <c r="B325"/>
       <c r="D325"/>
     </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A326"/>
       <c r="B326"/>
       <c r="D326"/>
     </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A327"/>
       <c r="B327"/>
       <c r="D327"/>
     </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A328"/>
       <c r="B328"/>
       <c r="D328"/>
     </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A329"/>
       <c r="B329"/>
       <c r="D329"/>
     </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A330"/>
       <c r="B330"/>
       <c r="D330"/>
     </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A331"/>
       <c r="B331"/>
       <c r="D331"/>
     </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A332"/>
       <c r="B332"/>
       <c r="D332"/>
     </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A333"/>
       <c r="B333"/>
       <c r="D333"/>
     </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A334"/>
       <c r="B334"/>
       <c r="D334"/>
     </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A335"/>
       <c r="B335"/>
       <c r="D335"/>
     </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A336"/>
       <c r="B336"/>
       <c r="D336"/>
     </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A337"/>
       <c r="B337"/>
       <c r="D337"/>
     </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A338"/>
       <c r="B338"/>
       <c r="D338"/>
     </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A339"/>
       <c r="B339"/>
       <c r="D339"/>
     </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A340"/>
       <c r="B340"/>
       <c r="D340"/>
     </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A341"/>
       <c r="B341"/>
       <c r="D341"/>
     </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A342"/>
       <c r="B342"/>
       <c r="D342"/>
     </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A343"/>
       <c r="B343"/>
       <c r="D343"/>
     </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A344"/>
       <c r="B344"/>
       <c r="D344"/>
     </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A345"/>
       <c r="B345"/>
       <c r="D345"/>
     </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A346"/>
       <c r="B346"/>
       <c r="D346"/>
     </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A347"/>
       <c r="B347"/>
       <c r="D347"/>
     </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A348"/>
       <c r="B348"/>
       <c r="D348"/>
     </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A349"/>
       <c r="B349"/>
       <c r="D349"/>
     </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A350"/>
       <c r="B350"/>
       <c r="D350"/>
     </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A351"/>
       <c r="B351"/>
       <c r="D351"/>
     </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A352"/>
       <c r="B352"/>
       <c r="D352"/>
     </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A353"/>
       <c r="B353"/>
       <c r="D353"/>
     </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A354"/>
       <c r="B354"/>
       <c r="D354"/>
     </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A355"/>
       <c r="B355"/>
       <c r="D355"/>
     </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A356"/>
       <c r="B356"/>
       <c r="D356"/>
     </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A357"/>
       <c r="B357"/>
       <c r="D357"/>
     </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A358"/>
       <c r="B358"/>
       <c r="D358"/>
     </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A359"/>
       <c r="B359"/>
       <c r="D359"/>
     </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A360"/>
       <c r="B360"/>
       <c r="D360"/>
     </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A361"/>
       <c r="B361"/>
       <c r="D361"/>
     </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A362"/>
       <c r="B362"/>
       <c r="D362"/>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A363"/>
       <c r="B363"/>
       <c r="D363"/>
     </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A364"/>
       <c r="B364"/>
       <c r="D364"/>
     </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A365"/>
       <c r="B365"/>
       <c r="D365"/>
     </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A366"/>
       <c r="B366"/>
       <c r="D366"/>
     </row>
-    <row r="367" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A367"/>
       <c r="B367"/>
       <c r="D367"/>
     </row>
-    <row r="368" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A368"/>
       <c r="B368"/>
       <c r="D368"/>
     </row>
-    <row r="369" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A369"/>
       <c r="B369"/>
       <c r="D369"/>
     </row>
-    <row r="370" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A370"/>
       <c r="B370"/>
       <c r="D370"/>
     </row>
-    <row r="371" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A371"/>
       <c r="B371"/>
       <c r="D371"/>
     </row>
-    <row r="372" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A372"/>
       <c r="B372"/>
       <c r="D372"/>
     </row>
-    <row r="373" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A373"/>
       <c r="B373"/>
       <c r="D373"/>
     </row>
-    <row r="374" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A374"/>
       <c r="B374"/>
       <c r="D374"/>
     </row>
-    <row r="375" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A375"/>
       <c r="B375"/>
       <c r="D375"/>
     </row>
-    <row r="376" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A376"/>
       <c r="B376"/>
       <c r="D376"/>
     </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A377"/>
       <c r="B377"/>
       <c r="D377"/>
     </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A378"/>
       <c r="B378"/>
       <c r="D378"/>
     </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A379"/>
       <c r="B379"/>
       <c r="D379"/>
     </row>
-    <row r="380" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A380"/>
       <c r="B380"/>
       <c r="D380"/>
     </row>
-    <row r="381" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A381"/>
       <c r="B381"/>
       <c r="D381"/>
     </row>
-    <row r="382" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A382"/>
       <c r="B382"/>
       <c r="D382"/>
     </row>
-    <row r="383" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A383"/>
       <c r="B383"/>
       <c r="D383"/>
     </row>
-    <row r="384" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A384"/>
       <c r="B384"/>
       <c r="D384"/>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A385"/>
       <c r="B385"/>
       <c r="D385"/>
     </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A386"/>
       <c r="B386"/>
       <c r="D386"/>
     </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A387"/>
       <c r="B387"/>
       <c r="D387"/>
     </row>
-    <row r="388" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A388"/>
       <c r="B388"/>
       <c r="D388"/>
     </row>
-    <row r="389" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A389"/>
       <c r="B389"/>
       <c r="D389"/>
     </row>
-    <row r="390" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A390"/>
       <c r="B390"/>
       <c r="D390"/>
     </row>
-    <row r="391" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A391"/>
       <c r="B391"/>
       <c r="D391"/>
     </row>
-    <row r="392" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A392"/>
       <c r="B392"/>
       <c r="D392"/>
     </row>
-    <row r="393" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A393"/>
       <c r="B393"/>
       <c r="D393"/>
     </row>
-    <row r="394" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A394"/>
       <c r="B394"/>
       <c r="D394"/>
     </row>
-    <row r="395" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A395"/>
       <c r="B395"/>
       <c r="D395"/>
     </row>
-    <row r="396" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A396"/>
       <c r="B396"/>
       <c r="D396"/>
     </row>
-    <row r="397" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A397"/>
       <c r="B397"/>
       <c r="D397"/>
     </row>
-    <row r="398" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A398"/>
       <c r="B398"/>
       <c r="D398"/>
     </row>
-    <row r="399" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A399"/>
       <c r="B399"/>
       <c r="D399"/>
     </row>
-    <row r="400" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A400"/>
       <c r="B400"/>
       <c r="D400"/>
     </row>
-    <row r="401" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A401"/>
       <c r="B401"/>
       <c r="D401"/>
     </row>
-    <row r="402" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A402"/>
       <c r="B402"/>
       <c r="D402"/>
     </row>
-    <row r="403" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A403"/>
       <c r="B403"/>
       <c r="D403"/>
     </row>
-    <row r="404" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A404"/>
       <c r="B404"/>
       <c r="D404"/>
     </row>
-    <row r="405" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A405"/>
       <c r="B405"/>
       <c r="D405"/>
     </row>
-    <row r="406" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A406"/>
       <c r="B406"/>
       <c r="D406"/>
     </row>
-    <row r="407" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A407"/>
       <c r="B407"/>
       <c r="D407"/>
     </row>
-    <row r="408" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A408"/>
       <c r="B408"/>
       <c r="D408"/>
     </row>
-    <row r="409" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A409"/>
       <c r="B409"/>
       <c r="D409"/>
     </row>
-    <row r="410" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A410"/>
       <c r="B410"/>
       <c r="D410"/>
     </row>
-    <row r="411" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A411"/>
       <c r="B411"/>
       <c r="D411"/>
     </row>
-    <row r="412" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A412"/>
       <c r="B412"/>
       <c r="D412"/>
     </row>
-    <row r="413" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A413"/>
       <c r="B413"/>
       <c r="D413"/>
     </row>
-    <row r="414" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A414"/>
       <c r="B414"/>
       <c r="D414"/>
     </row>
-    <row r="415" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A415"/>
       <c r="B415"/>
       <c r="D415"/>
     </row>
-    <row r="416" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A416"/>
       <c r="B416"/>
       <c r="D416"/>
     </row>
-    <row r="417" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A417"/>
       <c r="B417"/>
       <c r="D417"/>
     </row>
-    <row r="418" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A418"/>
       <c r="B418"/>
       <c r="D418"/>
     </row>
-    <row r="419" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A419"/>
       <c r="B419"/>
       <c r="D419"/>
     </row>
-    <row r="420" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A420"/>
       <c r="B420"/>
       <c r="D420"/>
     </row>
-    <row r="421" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A421"/>
       <c r="B421"/>
       <c r="D421"/>
     </row>
-    <row r="422" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A422"/>
       <c r="B422"/>
       <c r="D422"/>
     </row>
-    <row r="423" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A423"/>
       <c r="B423"/>
       <c r="D423"/>
     </row>
-    <row r="424" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A424"/>
       <c r="B424"/>
       <c r="D424"/>
     </row>
-    <row r="425" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A425"/>
       <c r="B425"/>
       <c r="D425"/>
     </row>
-    <row r="426" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A426"/>
       <c r="B426"/>
       <c r="D426"/>
     </row>
-    <row r="427" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A427"/>
       <c r="B427"/>
       <c r="D427"/>
     </row>
-    <row r="428" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A428"/>
       <c r="B428"/>
       <c r="D428"/>
     </row>
-    <row r="429" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A429"/>
       <c r="B429"/>
       <c r="D429"/>
     </row>
-    <row r="430" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A430"/>
       <c r="B430"/>
       <c r="D430"/>
     </row>
-    <row r="431" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A431"/>
       <c r="B431"/>
       <c r="D431"/>
     </row>
-    <row r="432" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A432"/>
       <c r="B432"/>
       <c r="D432"/>
     </row>
-    <row r="433" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A433"/>
       <c r="B433"/>
       <c r="D433"/>
     </row>
-    <row r="434" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A434"/>
       <c r="B434"/>
       <c r="D434"/>
     </row>
-    <row r="435" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A435"/>
       <c r="B435"/>
       <c r="D435"/>
     </row>
-    <row r="436" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A436"/>
       <c r="B436"/>
       <c r="D436"/>
     </row>
-    <row r="437" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A437"/>
       <c r="B437"/>
       <c r="D437"/>
     </row>
-    <row r="438" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A438"/>
       <c r="B438"/>
       <c r="D438"/>
     </row>
-    <row r="439" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A439"/>
       <c r="B439"/>
       <c r="D439"/>
     </row>
-    <row r="440" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A440"/>
       <c r="B440"/>
       <c r="D440"/>
     </row>
-    <row r="441" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A441"/>
       <c r="B441"/>
       <c r="D441"/>
     </row>
-    <row r="442" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A442"/>
       <c r="B442"/>
       <c r="D442"/>
     </row>
-    <row r="443" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A443"/>
       <c r="B443"/>
       <c r="D443"/>
     </row>
-    <row r="444" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A444"/>
       <c r="B444"/>
       <c r="D444"/>
     </row>
-    <row r="445" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A445"/>
       <c r="B445"/>
       <c r="D445"/>
     </row>
-    <row r="446" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A446"/>
       <c r="B446"/>
       <c r="D446"/>
     </row>
-    <row r="447" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A447"/>
       <c r="B447"/>
       <c r="D447"/>
     </row>
-    <row r="448" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A448"/>
       <c r="B448"/>
       <c r="D448"/>
     </row>
-    <row r="449" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A449"/>
       <c r="B449"/>
       <c r="D449"/>
     </row>
-    <row r="450" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A450"/>
       <c r="B450"/>
       <c r="D450"/>
     </row>
-    <row r="451" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A451"/>
       <c r="B451"/>
       <c r="D451"/>
     </row>
-    <row r="452" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A452"/>
       <c r="B452"/>
       <c r="D452"/>
     </row>
-    <row r="453" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A453"/>
       <c r="B453"/>
       <c r="D453"/>
     </row>
-    <row r="454" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A454"/>
       <c r="B454"/>
       <c r="D454"/>
     </row>
-    <row r="455" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A455"/>
       <c r="B455"/>
       <c r="D455"/>
     </row>
-    <row r="456" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A456"/>
       <c r="B456"/>
       <c r="D456"/>
     </row>
-    <row r="457" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A457"/>
       <c r="B457"/>
       <c r="D457"/>
     </row>
-    <row r="458" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A458"/>
       <c r="B458"/>
       <c r="D458"/>
     </row>
-    <row r="459" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A459"/>
       <c r="B459"/>
       <c r="D459"/>
     </row>
-    <row r="460" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A460"/>
       <c r="B460"/>
       <c r="D460"/>
     </row>
-    <row r="461" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A461"/>
       <c r="B461"/>
       <c r="D461"/>
     </row>
-    <row r="462" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A462"/>
       <c r="B462"/>
       <c r="D462"/>
     </row>
-    <row r="463" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A463"/>
       <c r="B463"/>
       <c r="D463"/>
     </row>
-    <row r="464" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A464"/>
       <c r="D464"/>
     </row>
-    <row r="465" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A465"/>
       <c r="D465"/>
     </row>
-    <row r="466" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A466"/>
       <c r="D466"/>
     </row>
-    <row r="467" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A467"/>
       <c r="D467"/>
     </row>
-    <row r="468" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A468"/>
       <c r="D468"/>
     </row>
-    <row r="469" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A469"/>
       <c r="D469"/>
     </row>
-    <row r="470" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A470"/>
       <c r="D470"/>
     </row>
-    <row r="471" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A471"/>
       <c r="D471"/>
     </row>
-    <row r="472" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A472"/>
       <c r="D472"/>
     </row>
-    <row r="473" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A473"/>
       <c r="D473"/>
     </row>
-    <row r="474" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A474"/>
       <c r="D474"/>
     </row>
-    <row r="475" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A475"/>
       <c r="D475"/>
     </row>
-    <row r="476" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A476"/>
       <c r="D476"/>
     </row>
-    <row r="477" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A477"/>
       <c r="D477"/>
     </row>
-    <row r="478" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A478"/>
       <c r="D478"/>
     </row>
-    <row r="479" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A479"/>
       <c r="D479"/>
     </row>
-    <row r="480" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A480"/>
       <c r="D480"/>
     </row>
-    <row r="481" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A481"/>
       <c r="D481"/>
     </row>
-    <row r="482" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A482"/>
       <c r="D482"/>
     </row>
-    <row r="483" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A483"/>
       <c r="D483"/>
     </row>
-    <row r="484" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A484"/>
       <c r="D484"/>
     </row>
-    <row r="485" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A485"/>
       <c r="D485"/>
     </row>
-    <row r="486" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A486"/>
       <c r="D486"/>
     </row>
-    <row r="487" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A487"/>
       <c r="D487"/>
     </row>
-    <row r="488" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A488"/>
       <c r="D488"/>
     </row>
-    <row r="489" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A489"/>
       <c r="D489"/>
     </row>
-    <row r="490" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A490"/>
       <c r="D490"/>
     </row>
-    <row r="491" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A491"/>
       <c r="D491"/>
     </row>
-    <row r="492" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A492"/>
       <c r="D492"/>
     </row>
-    <row r="493" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A493"/>
       <c r="D493"/>
     </row>
-    <row r="494" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A494"/>
       <c r="D494"/>
     </row>
-    <row r="495" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A495"/>
       <c r="D495"/>
     </row>
-    <row r="496" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A496"/>
       <c r="D496"/>
     </row>
-    <row r="497" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A497"/>
       <c r="D497"/>
     </row>
-    <row r="498" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A498"/>
       <c r="D498"/>
     </row>
-    <row r="499" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A499"/>
       <c r="D499"/>
     </row>
-    <row r="500" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A500"/>
       <c r="D500"/>
     </row>
-    <row r="501" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A501"/>
       <c r="D501"/>
     </row>
-    <row r="502" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A502"/>
       <c r="D502"/>
     </row>
-    <row r="503" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A503"/>
       <c r="D503"/>
     </row>
-    <row r="504" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A504"/>
       <c r="D504"/>
     </row>
-    <row r="505" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A505"/>
       <c r="D505"/>
     </row>
-    <row r="506" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A506"/>
       <c r="D506"/>
     </row>
-    <row r="507" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A507"/>
       <c r="D507"/>
     </row>
-    <row r="508" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A508"/>
       <c r="D508"/>
     </row>
-    <row r="509" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A509"/>
       <c r="D509"/>
     </row>
-    <row r="510" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A510"/>
       <c r="D510"/>
     </row>
-    <row r="511" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A511"/>
       <c r="D511"/>
     </row>
-    <row r="512" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A512"/>
       <c r="D512"/>
     </row>
-    <row r="513" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A513"/>
       <c r="D513"/>
     </row>
-    <row r="514" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A514"/>
       <c r="D514"/>
     </row>
-    <row r="515" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A515"/>
       <c r="D515"/>
     </row>
-    <row r="516" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A516"/>
       <c r="D516"/>
     </row>
-    <row r="517" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A517"/>
       <c r="D517"/>
     </row>
-    <row r="518" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A518"/>
       <c r="D518"/>
     </row>
-    <row r="519" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A519"/>
       <c r="D519"/>
     </row>
-    <row r="520" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A520"/>
       <c r="D520"/>
     </row>
-    <row r="521" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A521"/>
       <c r="D521"/>
     </row>
-    <row r="522" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A522"/>
       <c r="D522"/>
     </row>
-    <row r="523" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A523"/>
       <c r="D523"/>
     </row>
-    <row r="524" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A524"/>
       <c r="D524"/>
     </row>
-    <row r="525" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A525"/>
       <c r="D525"/>
     </row>
-    <row r="526" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A526"/>
       <c r="D526"/>
     </row>
-    <row r="527" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A527"/>
       <c r="D527"/>
     </row>
-    <row r="528" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A528"/>
       <c r="D528"/>
     </row>
-    <row r="529" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A529"/>
       <c r="D529"/>
     </row>
-    <row r="530" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A530"/>
       <c r="D530"/>
     </row>
-    <row r="531" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A531"/>
       <c r="D531"/>
     </row>
-    <row r="532" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A532"/>
       <c r="D532"/>
     </row>
-    <row r="533" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A533"/>
       <c r="D533"/>
     </row>
-    <row r="534" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A534"/>
       <c r="D534"/>
     </row>
-    <row r="535" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A535"/>
       <c r="D535"/>
     </row>
-    <row r="536" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A536"/>
       <c r="D536"/>
     </row>
-    <row r="537" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A537"/>
       <c r="D537"/>
     </row>
-    <row r="538" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A538"/>
       <c r="D538"/>
     </row>
-    <row r="539" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A539"/>
       <c r="D539"/>
     </row>
-    <row r="540" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A540"/>
       <c r="D540"/>
     </row>
-    <row r="541" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A541"/>
       <c r="D541"/>
     </row>
-    <row r="542" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A542"/>
       <c r="D542"/>
     </row>
-    <row r="543" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A543"/>
       <c r="D543"/>
     </row>
-    <row r="544" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A544"/>
       <c r="D544"/>
     </row>
-    <row r="545" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A545"/>
       <c r="D545"/>
     </row>
-    <row r="546" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A546"/>
       <c r="D546"/>
     </row>
-    <row r="547" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A547"/>
       <c r="D547"/>
     </row>
-    <row r="548" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A548"/>
       <c r="D548"/>
     </row>
-    <row r="549" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A549"/>
       <c r="D549"/>
     </row>
-    <row r="550" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A550"/>
       <c r="D550"/>
     </row>
-    <row r="551" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A551"/>
       <c r="D551"/>
     </row>
-    <row r="552" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A552"/>
       <c r="D552"/>
     </row>
-    <row r="553" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A553"/>
       <c r="D553"/>
     </row>
-    <row r="554" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A554"/>
       <c r="D554"/>
     </row>
-    <row r="555" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A555"/>
       <c r="D555"/>
     </row>
-    <row r="556" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A556"/>
       <c r="D556"/>
     </row>
-    <row r="557" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A557"/>
       <c r="D557"/>
     </row>
-    <row r="558" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A558"/>
       <c r="D558"/>
     </row>
-    <row r="559" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A559"/>
       <c r="D559"/>
     </row>
-    <row r="560" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A560"/>
       <c r="D560"/>
     </row>
-    <row r="561" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A561"/>
       <c r="D561"/>
     </row>
-    <row r="562" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A562"/>
       <c r="D562"/>
     </row>
-    <row r="563" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A563"/>
       <c r="D563"/>
     </row>
-    <row r="564" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A564"/>
       <c r="D564"/>
     </row>
-    <row r="565" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A565"/>
       <c r="D565"/>
     </row>
-    <row r="566" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A566"/>
       <c r="D566"/>
     </row>
-    <row r="567" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A567"/>
       <c r="D567"/>
     </row>
-    <row r="568" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A568"/>
       <c r="D568"/>
     </row>
-    <row r="569" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A569"/>
       <c r="D569"/>
     </row>
-    <row r="570" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A570"/>
       <c r="D570"/>
     </row>
-    <row r="571" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A571"/>
       <c r="D571"/>
     </row>
-    <row r="572" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A572"/>
       <c r="D572"/>
     </row>
-    <row r="573" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A573"/>
       <c r="D573"/>
     </row>
-    <row r="574" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A574"/>
       <c r="D574"/>
     </row>
-    <row r="575" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A575"/>
       <c r="D575"/>
     </row>
-    <row r="576" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A576"/>
       <c r="D576"/>
     </row>
-    <row r="577" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A577"/>
       <c r="D577"/>
     </row>
-    <row r="578" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A578"/>
       <c r="D578"/>
     </row>
-    <row r="579" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A579"/>
       <c r="D579"/>
     </row>
-    <row r="580" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A580"/>
       <c r="D580"/>
     </row>
-    <row r="581" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A581"/>
       <c r="D581"/>
     </row>
-    <row r="582" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A582"/>
       <c r="D582"/>
     </row>
-    <row r="583" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A583"/>
       <c r="D583"/>
     </row>
-    <row r="584" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A584"/>
       <c r="D584"/>
     </row>
-    <row r="585" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A585"/>
       <c r="D585"/>
     </row>
-    <row r="586" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A586"/>
       <c r="D586"/>
     </row>
-    <row r="587" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A587"/>
       <c r="D587"/>
     </row>
-    <row r="588" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A588"/>
       <c r="D588"/>
     </row>
-    <row r="589" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A589"/>
       <c r="D589"/>
     </row>
-    <row r="590" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A590"/>
       <c r="D590"/>
     </row>
-    <row r="591" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A591"/>
       <c r="D591"/>
     </row>
-    <row r="592" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A592"/>
       <c r="D592"/>
     </row>
-    <row r="593" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A593"/>
       <c r="D593"/>
     </row>
-    <row r="594" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A594"/>
       <c r="D594"/>
     </row>
-    <row r="595" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A595"/>
       <c r="D595"/>
     </row>
-    <row r="596" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A596"/>
       <c r="D596"/>
     </row>
-    <row r="597" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A597"/>
       <c r="D597"/>
     </row>
-    <row r="598" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A598"/>
       <c r="D598"/>
     </row>
-    <row r="599" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A599"/>
       <c r="D599"/>
     </row>
-    <row r="600" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A600"/>
       <c r="D600"/>
     </row>
-    <row r="601" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A601"/>
       <c r="D601"/>
     </row>
-    <row r="602" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A602"/>
       <c r="D602"/>
     </row>
-    <row r="603" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A603"/>
       <c r="D603"/>
     </row>
-    <row r="604" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A604"/>
       <c r="D604"/>
     </row>
-    <row r="605" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A605"/>
       <c r="D605"/>
     </row>
-    <row r="606" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A606"/>
       <c r="D606"/>
     </row>
-    <row r="607" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A607"/>
       <c r="D607"/>
     </row>
-    <row r="608" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A608"/>
       <c r="D608"/>
     </row>
-    <row r="609" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A609"/>
       <c r="D609"/>
     </row>
-    <row r="610" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A610"/>
       <c r="D610"/>
     </row>
-    <row r="611" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A611"/>
       <c r="D611"/>
     </row>
-    <row r="612" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A612"/>
       <c r="D612"/>
     </row>
-    <row r="613" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A613"/>
       <c r="D613"/>
     </row>
-    <row r="614" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A614"/>
       <c r="D614"/>
     </row>
-    <row r="615" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A615"/>
       <c r="D615"/>
     </row>
-    <row r="616" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A616"/>
       <c r="D616"/>
     </row>
-    <row r="617" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A617"/>
       <c r="D617"/>
     </row>
-    <row r="618" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A618"/>
       <c r="D618"/>
     </row>
-    <row r="619" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A619"/>
       <c r="D619"/>
     </row>
-    <row r="620" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A620"/>
       <c r="D620"/>
     </row>
-    <row r="621" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A621"/>
       <c r="D621"/>
     </row>
-    <row r="622" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A622"/>
       <c r="D622"/>
     </row>
-    <row r="623" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A623"/>
       <c r="D623"/>
     </row>
-    <row r="624" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A624"/>
       <c r="D624"/>
     </row>
-    <row r="625" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A625"/>
       <c r="D625"/>
     </row>
-    <row r="626" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A626"/>
       <c r="D626"/>
     </row>
-    <row r="627" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A627"/>
       <c r="D627"/>
     </row>
-    <row r="628" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A628"/>
       <c r="D628"/>
     </row>
-    <row r="629" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A629"/>
       <c r="D629"/>
     </row>
-    <row r="630" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A630"/>
       <c r="D630"/>
     </row>
-    <row r="631" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A631"/>
       <c r="D631"/>
     </row>
-    <row r="632" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A632"/>
       <c r="D632"/>
     </row>
-    <row r="633" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A633"/>
       <c r="D633"/>
     </row>
-    <row r="634" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A634"/>
       <c r="D634"/>
     </row>
-    <row r="635" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A635"/>
       <c r="D635"/>
     </row>
-    <row r="636" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A636"/>
       <c r="D636"/>
     </row>
-    <row r="637" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A637"/>
       <c r="D637"/>
     </row>
-    <row r="638" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A638"/>
       <c r="D638"/>
     </row>
-    <row r="639" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A639"/>
       <c r="D639"/>
     </row>
-    <row r="640" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A640"/>
       <c r="D640"/>
     </row>
-    <row r="641" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A641"/>
       <c r="D641"/>
     </row>
-    <row r="642" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A642"/>
       <c r="D642"/>
     </row>
-    <row r="643" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A643"/>
       <c r="D643"/>
     </row>
-    <row r="644" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A644"/>
       <c r="D644"/>
     </row>
-    <row r="645" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A645"/>
       <c r="D645"/>
     </row>
-    <row r="646" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A646"/>
       <c r="D646"/>
     </row>
-    <row r="647" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A647"/>
       <c r="D647"/>
     </row>
-    <row r="648" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A648"/>
       <c r="D648"/>
     </row>
-    <row r="649" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A649"/>
       <c r="D649"/>
     </row>
-    <row r="650" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A650"/>
       <c r="D650"/>
     </row>
-    <row r="651" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A651"/>
       <c r="D651"/>
     </row>
-    <row r="652" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A652"/>
       <c r="D652"/>
     </row>
-    <row r="653" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A653"/>
       <c r="D653"/>
     </row>
-    <row r="654" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A654"/>
       <c r="D654"/>
     </row>
-    <row r="655" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A655"/>
       <c r="D655"/>
     </row>
-    <row r="656" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A656"/>
       <c r="D656"/>
     </row>
-    <row r="657" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A657"/>
       <c r="D657"/>
     </row>
-    <row r="658" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A658"/>
       <c r="D658"/>
     </row>
-    <row r="659" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A659"/>
       <c r="D659"/>
     </row>
-    <row r="660" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A660"/>
       <c r="D660"/>
     </row>
-    <row r="661" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A661"/>
       <c r="D661"/>
     </row>
-    <row r="662" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A662"/>
       <c r="D662"/>
     </row>
-    <row r="663" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A663"/>
       <c r="D663"/>
     </row>
-    <row r="664" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A664"/>
       <c r="D664"/>
     </row>
-    <row r="665" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A665"/>
       <c r="D665"/>
     </row>
-    <row r="666" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A666"/>
       <c r="D666"/>
     </row>
-    <row r="667" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A667"/>
       <c r="D667"/>
     </row>
-    <row r="668" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A668"/>
       <c r="D668"/>
     </row>
-    <row r="669" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A669"/>
       <c r="D669"/>
     </row>
-    <row r="670" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A670"/>
       <c r="D670"/>
     </row>
-    <row r="671" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A671"/>
       <c r="D671"/>
     </row>
-    <row r="672" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A672"/>
       <c r="D672"/>
     </row>
-    <row r="673" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A673"/>
       <c r="D673"/>
     </row>
-    <row r="674" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A674"/>
       <c r="D674"/>
     </row>
-    <row r="675" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A675"/>
       <c r="D675"/>
     </row>
-    <row r="676" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A676"/>
       <c r="D676"/>
     </row>
-    <row r="677" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A677"/>
       <c r="D677"/>
     </row>
-    <row r="678" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A678"/>
       <c r="D678"/>
     </row>
-    <row r="679" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A679"/>
       <c r="D679"/>
     </row>
-    <row r="680" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A680"/>
       <c r="D680"/>
     </row>
-    <row r="681" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A681"/>
       <c r="D681"/>
     </row>
-    <row r="682" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A682"/>
       <c r="D682"/>
     </row>
-    <row r="683" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A683"/>
       <c r="D683"/>
     </row>
-    <row r="684" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A684"/>
       <c r="D684"/>
     </row>
-    <row r="685" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A685"/>
       <c r="D685"/>
     </row>
-    <row r="686" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A686"/>
       <c r="D686"/>
     </row>
-    <row r="687" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A687"/>
       <c r="D687"/>
     </row>
-    <row r="688" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A688"/>
       <c r="D688"/>
     </row>
-    <row r="689" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A689"/>
       <c r="D689"/>
     </row>
-    <row r="690" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A690"/>
       <c r="D690"/>
     </row>
-    <row r="691" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A691"/>
       <c r="D691"/>
     </row>
-    <row r="692" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A692"/>
       <c r="D692"/>
     </row>
-    <row r="693" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A693"/>
       <c r="D693"/>
     </row>
-    <row r="694" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A694"/>
       <c r="D694"/>
     </row>
-    <row r="695" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A695"/>
       <c r="D695"/>
     </row>
-    <row r="696" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A696"/>
       <c r="D696"/>
     </row>
-    <row r="697" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A697"/>
       <c r="D697"/>
     </row>
-    <row r="698" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A698"/>
       <c r="D698"/>
     </row>
-    <row r="699" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A699"/>
       <c r="D699"/>
     </row>
-    <row r="700" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A700"/>
       <c r="D700"/>
     </row>
-    <row r="701" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A701"/>
       <c r="D701"/>
     </row>
-    <row r="702" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A702"/>
       <c r="D702"/>
     </row>
-    <row r="703" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A703"/>
       <c r="D703"/>
     </row>
-    <row r="704" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A704"/>
       <c r="D704"/>
     </row>
-    <row r="705" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A705"/>
       <c r="D705"/>
     </row>
-    <row r="706" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A706"/>
       <c r="D706"/>
     </row>
-    <row r="707" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A707"/>
       <c r="D707"/>
     </row>
-    <row r="708" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A708"/>
       <c r="D708"/>
     </row>
-    <row r="709" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A709"/>
       <c r="D709"/>
     </row>
-    <row r="710" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A710"/>
       <c r="D710"/>
     </row>
-    <row r="711" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A711"/>
       <c r="D711"/>
     </row>
-    <row r="712" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A712"/>
       <c r="D712"/>
     </row>
-    <row r="713" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A713"/>
       <c r="D713"/>
     </row>
-    <row r="714" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A714"/>
       <c r="D714"/>
     </row>
-    <row r="715" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A715"/>
       <c r="D715"/>
     </row>
-    <row r="716" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A716"/>
       <c r="D716"/>
     </row>
-    <row r="717" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A717"/>
       <c r="D717"/>
     </row>
-    <row r="718" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A718"/>
       <c r="D718"/>
     </row>
-    <row r="719" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A719"/>
       <c r="D719"/>
     </row>
-    <row r="720" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A720"/>
       <c r="D720"/>
     </row>
-    <row r="721" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A721"/>
       <c r="D721"/>
     </row>
-    <row r="722" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A722"/>
       <c r="D722"/>
     </row>
-    <row r="723" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A723"/>
       <c r="D723"/>
     </row>
-    <row r="724" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A724"/>
       <c r="D724"/>
     </row>
-    <row r="725" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A725"/>
       <c r="D725"/>
     </row>
-    <row r="726" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A726"/>
       <c r="D726"/>
     </row>
-    <row r="727" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A727"/>
       <c r="D727"/>
     </row>
-    <row r="728" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A728"/>
       <c r="D728"/>
     </row>
-    <row r="729" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A729"/>
       <c r="D729"/>
     </row>
-    <row r="730" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A730"/>
       <c r="D730"/>
     </row>
-    <row r="731" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A731"/>
       <c r="D731"/>
     </row>
-    <row r="732" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A732"/>
       <c r="D732"/>
     </row>
-    <row r="733" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A733"/>
       <c r="D733"/>
     </row>
-    <row r="734" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A734"/>
       <c r="D734"/>
     </row>
-    <row r="735" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A735"/>
       <c r="D735"/>
     </row>
-    <row r="736" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A736"/>
       <c r="D736"/>
     </row>
-    <row r="737" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A737"/>
       <c r="D737"/>
     </row>
-    <row r="738" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A738"/>
       <c r="D738"/>
     </row>
-    <row r="739" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A739"/>
       <c r="D739"/>
     </row>
-    <row r="740" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A740"/>
       <c r="D740"/>
     </row>
-    <row r="741" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A741"/>
       <c r="D741"/>
     </row>
-    <row r="742" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A742"/>
       <c r="D742"/>
     </row>
-    <row r="743" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A743"/>
       <c r="D743"/>
     </row>
-    <row r="744" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A744"/>
       <c r="D744"/>
     </row>
-    <row r="745" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A745"/>
       <c r="D745"/>
     </row>
-    <row r="746" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A746"/>
       <c r="D746"/>
     </row>
-    <row r="747" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A747"/>
       <c r="D747"/>
     </row>
-    <row r="748" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A748"/>
       <c r="D748"/>
     </row>
-    <row r="749" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A749"/>
       <c r="D749"/>
     </row>
-    <row r="750" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A750"/>
       <c r="D750"/>
     </row>
-    <row r="751" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A751"/>
       <c r="D751"/>
     </row>
-    <row r="752" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A752"/>
       <c r="D752"/>
     </row>
-    <row r="753" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A753"/>
       <c r="D753"/>
     </row>
-    <row r="754" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A754"/>
       <c r="D754"/>
     </row>
-    <row r="755" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A755"/>
       <c r="D755"/>
     </row>
-    <row r="756" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A756"/>
       <c r="D756"/>
     </row>
-    <row r="757" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A757"/>
       <c r="D757"/>
     </row>
-    <row r="758" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A758"/>
       <c r="D758"/>
     </row>
-    <row r="759" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A759"/>
       <c r="D759"/>
     </row>
-    <row r="760" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A760"/>
       <c r="D760"/>
     </row>
-    <row r="761" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A761"/>
       <c r="D761"/>
     </row>
-    <row r="762" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A762"/>
       <c r="D762"/>
     </row>
-    <row r="763" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A763"/>
       <c r="D763"/>
     </row>
-    <row r="764" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A764"/>
       <c r="D764"/>
     </row>
-    <row r="765" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A765"/>
       <c r="D765"/>
     </row>
-    <row r="766" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A766"/>
       <c r="D766"/>
     </row>
-    <row r="767" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A767"/>
       <c r="D767"/>
     </row>
-    <row r="768" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A768"/>
       <c r="D768"/>
     </row>
-    <row r="769" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A769"/>
       <c r="D769"/>
     </row>
-    <row r="770" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A770"/>
       <c r="D770"/>
     </row>
-    <row r="771" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A771"/>
       <c r="D771"/>
     </row>
-    <row r="772" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A772"/>
       <c r="D772"/>
     </row>
-    <row r="773" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A773"/>
       <c r="D773"/>
     </row>
-    <row r="774" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A774"/>
       <c r="D774"/>
     </row>
-    <row r="775" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A775"/>
       <c r="D775"/>
     </row>
-    <row r="776" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A776"/>
       <c r="D776"/>
     </row>
-    <row r="777" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A777"/>
       <c r="D777"/>
     </row>
-    <row r="778" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A778"/>
       <c r="D778"/>
     </row>
-    <row r="779" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A779"/>
       <c r="D779"/>
     </row>
-    <row r="780" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A780"/>
       <c r="D780"/>
     </row>
-    <row r="781" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A781"/>
       <c r="D781"/>
     </row>
-    <row r="782" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A782"/>
       <c r="D782"/>
     </row>
-    <row r="783" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A783"/>
       <c r="D783"/>
     </row>
-    <row r="784" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A784"/>
       <c r="D784"/>
     </row>
-    <row r="785" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A785"/>
       <c r="D785"/>
     </row>
-    <row r="786" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A786"/>
       <c r="D786"/>
     </row>
-    <row r="787" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A787"/>
       <c r="D787"/>
     </row>
-    <row r="788" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A788"/>
       <c r="D788"/>
     </row>
-    <row r="789" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A789"/>
       <c r="D789"/>
     </row>
-    <row r="790" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A790"/>
       <c r="D790"/>
     </row>
-    <row r="791" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A791"/>
       <c r="D791"/>
     </row>
-    <row r="792" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A792"/>
       <c r="D792"/>
     </row>
-    <row r="793" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A793"/>
       <c r="D793"/>
     </row>
-    <row r="794" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A794"/>
       <c r="D794"/>
     </row>
-    <row r="795" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A795"/>
       <c r="D795"/>
     </row>
-    <row r="796" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A796"/>
       <c r="D796"/>
     </row>
-    <row r="797" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A797"/>
       <c r="D797"/>
     </row>
-    <row r="798" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A798"/>
       <c r="D798"/>
     </row>
-    <row r="799" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A799"/>
       <c r="D799"/>
     </row>
-    <row r="800" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A800"/>
       <c r="D800"/>
     </row>
-    <row r="801" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A801"/>
       <c r="D801"/>
     </row>
-    <row r="802" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A802"/>
       <c r="D802"/>
     </row>
-    <row r="803" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A803"/>
       <c r="D803"/>
     </row>
-    <row r="804" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A804"/>
       <c r="D804"/>
     </row>
-    <row r="805" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A805"/>
       <c r="D805"/>
     </row>
-    <row r="806" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A806"/>
       <c r="D806"/>
     </row>
-    <row r="807" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A807"/>
       <c r="D807"/>
     </row>
-    <row r="808" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A808"/>
       <c r="D808"/>
     </row>
-    <row r="809" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A809"/>
       <c r="D809"/>
     </row>
-    <row r="810" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A810"/>
       <c r="D810"/>
     </row>
-    <row r="811" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A811"/>
       <c r="D811"/>
     </row>
-    <row r="812" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A812"/>
       <c r="D812"/>
     </row>
-    <row r="813" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A813"/>
       <c r="D813"/>
     </row>
-    <row r="814" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A814"/>
       <c r="D814"/>
     </row>
-    <row r="815" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A815"/>
       <c r="D815"/>
     </row>
-    <row r="816" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A816"/>
       <c r="D816"/>
     </row>
-    <row r="817" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A817"/>
       <c r="D817"/>
     </row>
-    <row r="818" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A818"/>
       <c r="D818"/>
     </row>
-    <row r="819" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A819"/>
       <c r="D819"/>
     </row>
-    <row r="820" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A820"/>
       <c r="D820"/>
     </row>
-    <row r="821" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A821"/>
       <c r="D821"/>
     </row>
-    <row r="822" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A822"/>
       <c r="D822"/>
     </row>
-    <row r="823" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A823"/>
       <c r="D823"/>
     </row>
-    <row r="824" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A824"/>
       <c r="D824"/>
     </row>
-    <row r="825" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A825"/>
       <c r="D825"/>
     </row>
-    <row r="826" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A826"/>
       <c r="D826"/>
     </row>
-    <row r="827" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A827"/>
       <c r="D827"/>
     </row>
-    <row r="828" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A828"/>
       <c r="D828"/>
     </row>
-    <row r="829" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A829"/>
       <c r="D829"/>
     </row>
-    <row r="830" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A830"/>
       <c r="D830"/>
     </row>
-    <row r="831" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A831"/>
       <c r="D831"/>
     </row>
-    <row r="832" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A832"/>
       <c r="D832"/>
     </row>
-    <row r="833" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A833"/>
       <c r="D833"/>
     </row>
-    <row r="834" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A834"/>
       <c r="D834"/>
     </row>
-    <row r="835" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A835"/>
       <c r="D835"/>
     </row>
-    <row r="836" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A836"/>
       <c r="D836"/>
     </row>
-    <row r="837" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A837"/>
       <c r="D837"/>
     </row>
-    <row r="838" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A838"/>
       <c r="D838"/>
     </row>
-    <row r="839" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A839"/>
       <c r="D839"/>
     </row>
-    <row r="840" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A840"/>
       <c r="D840"/>
     </row>
-    <row r="841" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A841"/>
       <c r="D841"/>
     </row>
-    <row r="842" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A842"/>
       <c r="D842"/>
     </row>
-    <row r="843" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A843"/>
       <c r="D843"/>
     </row>
-    <row r="844" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A844"/>
       <c r="D844"/>
     </row>
-    <row r="845" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A845"/>
       <c r="D845"/>
     </row>
-    <row r="846" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A846"/>
       <c r="D846"/>
     </row>
-    <row r="847" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A847"/>
       <c r="D847"/>
     </row>
-    <row r="848" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A848"/>
       <c r="D848"/>
     </row>
-    <row r="849" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A849"/>
       <c r="D849"/>
     </row>
-    <row r="850" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A850"/>
       <c r="D850"/>
     </row>
-    <row r="851" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A851"/>
       <c r="D851"/>
     </row>
-    <row r="852" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A852"/>
       <c r="D852"/>
     </row>
-    <row r="853" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A853"/>
       <c r="D853"/>
     </row>
-    <row r="854" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A854"/>
       <c r="D854"/>
     </row>
-    <row r="855" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A855"/>
       <c r="D855"/>
     </row>
-    <row r="856" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A856"/>
       <c r="D856"/>
     </row>
-    <row r="857" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A857"/>
       <c r="D857"/>
     </row>
-    <row r="858" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A858"/>
       <c r="D858"/>
     </row>
-    <row r="859" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A859"/>
       <c r="D859"/>
     </row>
-    <row r="860" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A860"/>
       <c r="D860"/>
     </row>
-    <row r="861" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A861"/>
       <c r="D861"/>
     </row>
-    <row r="862" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A862"/>
       <c r="D862"/>
     </row>
-    <row r="863" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A863"/>
       <c r="D863"/>
     </row>
-    <row r="864" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A864"/>
       <c r="D864"/>
     </row>
-    <row r="865" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A865"/>
       <c r="D865"/>
     </row>
-    <row r="866" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A866"/>
       <c r="D866"/>
     </row>
-    <row r="867" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A867"/>
       <c r="D867"/>
     </row>
-    <row r="868" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A868"/>
       <c r="D868"/>
     </row>
-    <row r="869" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A869"/>
       <c r="D869"/>
     </row>
-    <row r="870" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A870"/>
       <c r="D870"/>
     </row>
-    <row r="871" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A871"/>
       <c r="D871"/>
     </row>
-    <row r="872" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A872"/>
       <c r="D872"/>
     </row>
-    <row r="873" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A873"/>
       <c r="D873"/>
     </row>
-    <row r="874" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A874"/>
       <c r="D874"/>
     </row>
-    <row r="875" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A875"/>
       <c r="D875"/>
     </row>
-    <row r="876" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A876"/>
       <c r="D876"/>
     </row>
-    <row r="877" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A877"/>
       <c r="D877"/>
     </row>
-    <row r="878" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A878"/>
       <c r="D878"/>
     </row>
-    <row r="879" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A879"/>
       <c r="D879"/>
     </row>
-    <row r="880" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A880"/>
       <c r="D880"/>
     </row>
-    <row r="881" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A881"/>
       <c r="D881"/>
     </row>
-    <row r="882" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A882"/>
       <c r="D882"/>
     </row>
-    <row r="883" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A883"/>
       <c r="D883"/>
     </row>
-    <row r="884" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A884"/>
       <c r="D884"/>
     </row>
-    <row r="885" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A885"/>
       <c r="D885"/>
     </row>
-    <row r="886" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A886"/>
       <c r="D886"/>
     </row>
-    <row r="887" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A887"/>
       <c r="D887"/>
     </row>
-    <row r="888" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A888"/>
       <c r="D888"/>
     </row>
-    <row r="889" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A889"/>
       <c r="D889"/>
     </row>
-    <row r="890" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A890"/>
       <c r="D890"/>
     </row>
-    <row r="891" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A891"/>
       <c r="D891"/>
     </row>
-    <row r="892" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A892"/>
       <c r="D892"/>
     </row>
-    <row r="893" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A893"/>
       <c r="D893"/>
     </row>
-    <row r="894" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A894"/>
       <c r="D894"/>
     </row>
-    <row r="895" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A895"/>
       <c r="D895"/>
     </row>
-    <row r="896" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A896"/>
       <c r="D896"/>
     </row>
-    <row r="897" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A897"/>
       <c r="D897"/>
     </row>
-    <row r="898" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A898"/>
       <c r="D898"/>
     </row>
-    <row r="899" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A899"/>
       <c r="D899"/>
     </row>
-    <row r="900" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A900"/>
       <c r="D900"/>
     </row>
-    <row r="901" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A901"/>
       <c r="D901"/>
     </row>
-    <row r="902" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A902"/>
       <c r="D902"/>
     </row>
-    <row r="903" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A903"/>
       <c r="D903"/>
     </row>
-    <row r="904" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A904"/>
       <c r="D904"/>
     </row>
-    <row r="905" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A905"/>
       <c r="D905"/>
     </row>
-    <row r="906" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A906"/>
       <c r="D906"/>
     </row>
-    <row r="907" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A907"/>
       <c r="D907"/>
     </row>
-    <row r="908" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A908"/>
       <c r="D908"/>
     </row>
-    <row r="909" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A909"/>
       <c r="D909"/>
     </row>
-    <row r="910" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A910"/>
       <c r="D910"/>
     </row>
-    <row r="911" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A911"/>
       <c r="D911"/>
     </row>
-    <row r="912" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A912"/>
       <c r="D912"/>
     </row>
-    <row r="913" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A913"/>
       <c r="D913"/>
     </row>
-    <row r="914" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A914"/>
       <c r="D914"/>
     </row>
-    <row r="915" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A915"/>
       <c r="D915"/>
     </row>
-    <row r="916" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A916"/>
       <c r="D916"/>
     </row>
-    <row r="917" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A917"/>
       <c r="D917"/>
     </row>
-    <row r="918" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A918"/>
       <c r="D918"/>
     </row>
-    <row r="919" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A919"/>
       <c r="D919"/>
     </row>
-    <row r="920" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A920"/>
       <c r="D920"/>
     </row>
-    <row r="921" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A921"/>
       <c r="D921"/>
     </row>
-    <row r="922" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A922"/>
       <c r="D922"/>
     </row>
-    <row r="923" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A923"/>
       <c r="D923"/>
     </row>
-    <row r="924" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A924"/>
       <c r="D924"/>
     </row>
-    <row r="925" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A925"/>
       <c r="D925"/>
     </row>
-    <row r="926" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A926"/>
       <c r="D926"/>
     </row>
-    <row r="927" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A927"/>
       <c r="D927"/>
     </row>
-    <row r="928" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A928"/>
       <c r="D928"/>
     </row>
-    <row r="929" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A929"/>
       <c r="D929"/>
     </row>
-    <row r="930" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A930"/>
       <c r="D930"/>
     </row>
-    <row r="931" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A931"/>
       <c r="D931"/>
     </row>
-    <row r="932" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A932"/>
       <c r="D932"/>
     </row>
-    <row r="933" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A933"/>
       <c r="D933"/>
     </row>
-    <row r="934" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A934"/>
       <c r="D934"/>
     </row>
-    <row r="935" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A935"/>
       <c r="D935"/>
     </row>
-    <row r="936" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A936"/>
       <c r="D936"/>
     </row>
-    <row r="937" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A937"/>
       <c r="D937"/>
     </row>
-    <row r="938" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A938"/>
       <c r="D938"/>
     </row>
-    <row r="939" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A939"/>
       <c r="D939"/>
     </row>
-    <row r="940" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A940"/>
       <c r="D940"/>
     </row>
-    <row r="941" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A941"/>
       <c r="D941"/>
     </row>
-    <row r="942" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A942"/>
       <c r="D942"/>
     </row>
-    <row r="943" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A943"/>
       <c r="D943"/>
     </row>
-    <row r="944" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A944"/>
       <c r="D944"/>
     </row>
-    <row r="945" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A945"/>
       <c r="D945"/>
     </row>
-    <row r="946" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A946"/>
       <c r="D946"/>
     </row>
-    <row r="947" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A947"/>
       <c r="D947"/>
     </row>
-    <row r="948" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A948"/>
       <c r="D948"/>
     </row>
-    <row r="949" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A949"/>
       <c r="D949"/>
     </row>
-    <row r="950" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A950"/>
       <c r="D950"/>
     </row>
-    <row r="951" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A951"/>
       <c r="D951"/>
     </row>
-    <row r="952" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A952"/>
       <c r="D952"/>
     </row>
-    <row r="953" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A953"/>
       <c r="D953"/>
     </row>
-    <row r="954" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A954"/>
       <c r="D954"/>
     </row>
-    <row r="955" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A955"/>
       <c r="D955"/>
     </row>
-    <row r="956" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A956"/>
       <c r="D956"/>
     </row>
-    <row r="957" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A957"/>
       <c r="D957"/>
     </row>
-    <row r="958" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A958"/>
       <c r="D958"/>
     </row>
-    <row r="959" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A959"/>
       <c r="D959"/>
     </row>
-    <row r="960" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A960"/>
       <c r="D960"/>
     </row>
-    <row r="961" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A961"/>
       <c r="D961"/>
     </row>
-    <row r="962" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A962"/>
       <c r="D962"/>
     </row>
-    <row r="963" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A963"/>
       <c r="D963"/>
     </row>
-    <row r="964" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A964"/>
       <c r="D964"/>
     </row>
-    <row r="965" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A965"/>
       <c r="D965"/>
     </row>
-    <row r="966" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A966"/>
       <c r="D966"/>
     </row>
-    <row r="967" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A967"/>
       <c r="D967"/>
     </row>
-    <row r="968" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A968"/>
       <c r="D968"/>
     </row>
-    <row r="969" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A969"/>
       <c r="D969"/>
     </row>
-    <row r="970" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A970"/>
       <c r="D970"/>
     </row>
-    <row r="971" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="971" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A971"/>
       <c r="D971"/>
     </row>
-    <row r="972" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="972" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A972"/>
       <c r="D972"/>
     </row>
-    <row r="973" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="973" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A973"/>
       <c r="D973"/>
     </row>
-    <row r="974" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="974" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A974"/>
       <c r="D974"/>
     </row>
-    <row r="975" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="975" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A975"/>
       <c r="D975"/>
     </row>
-    <row r="976" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="976" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A976"/>
       <c r="D976"/>
     </row>
-    <row r="977" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="977" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A977"/>
       <c r="D977"/>
     </row>
-    <row r="978" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="978" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A978"/>
       <c r="D978"/>
     </row>
-    <row r="979" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="979" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A979"/>
       <c r="D979"/>
     </row>
-    <row r="980" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="980" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A980"/>
       <c r="D980"/>
     </row>
-    <row r="981" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="981" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A981"/>
       <c r="D981"/>
     </row>
-    <row r="982" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="982" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A982"/>
       <c r="D982"/>
     </row>
-    <row r="983" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="983" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A983"/>
       <c r="D983"/>
     </row>
-    <row r="984" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="984" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A984"/>
       <c r="D984"/>
     </row>
-    <row r="985" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="985" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A985"/>
       <c r="D985"/>
     </row>
-    <row r="986" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="986" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A986"/>
       <c r="D986"/>
     </row>
-    <row r="987" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="987" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A987"/>
       <c r="D987"/>
     </row>
-    <row r="988" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="988" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A988"/>
       <c r="D988"/>
     </row>
-    <row r="989" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="989" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A989"/>
       <c r="D989"/>
     </row>
-    <row r="990" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="990" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A990"/>
       <c r="D990"/>
     </row>
-    <row r="991" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="991" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A991"/>
       <c r="D991"/>
     </row>
-    <row r="992" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="992" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A992"/>
       <c r="D992"/>
     </row>
-    <row r="993" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="993" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A993"/>
       <c r="D993"/>
     </row>
-    <row r="994" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="994" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A994"/>
       <c r="D994"/>
     </row>
-    <row r="995" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="995" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A995"/>
       <c r="D995"/>
     </row>
-    <row r="996" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="996" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A996"/>
       <c r="D996"/>
     </row>
-    <row r="997" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="997" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A997"/>
       <c r="D997"/>
     </row>
-    <row r="998" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="998" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A998"/>
       <c r="D998"/>
     </row>
-    <row r="999" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="999" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A999"/>
       <c r="D999"/>
     </row>
-    <row r="1000" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1000" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1000"/>
       <c r="D1000"/>
     </row>
-    <row r="1001" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1001" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1001"/>
       <c r="D1001"/>
     </row>
-    <row r="1002" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1002" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1002"/>
       <c r="D1002"/>
     </row>
-    <row r="1003" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1003" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1003"/>
       <c r="D1003"/>
     </row>
-    <row r="1004" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1004" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1004"/>
       <c r="D1004"/>
     </row>
-    <row r="1005" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1005" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1005"/>
       <c r="D1005"/>
     </row>
-    <row r="1006" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1006" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1006"/>
       <c r="D1006"/>
     </row>
-    <row r="1007" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1007" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1007"/>
       <c r="D1007"/>
     </row>
-    <row r="1008" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1008" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1008"/>
       <c r="D1008"/>
     </row>
-    <row r="1009" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1009" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1009"/>
       <c r="D1009"/>
     </row>
-    <row r="1010" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1010" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1010"/>
       <c r="D1010"/>
     </row>
-    <row r="1011" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1011" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1011"/>
       <c r="D1011"/>
     </row>
-    <row r="1012" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1012" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1012"/>
       <c r="D1012"/>
     </row>
-    <row r="1013" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1013" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1013"/>
       <c r="D1013"/>
     </row>
-    <row r="1014" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1014" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1014"/>
       <c r="D1014"/>
     </row>
-    <row r="1015" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1015" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1015"/>
       <c r="D1015"/>
     </row>
-    <row r="1016" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1016" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1016"/>
       <c r="D1016"/>
     </row>
-    <row r="1017" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1017" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1017"/>
       <c r="D1017"/>
     </row>
-    <row r="1018" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1018" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1018"/>
       <c r="D1018"/>
     </row>
-    <row r="1019" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1019" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1019"/>
       <c r="D1019"/>
     </row>
-    <row r="1020" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1020" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1020"/>
       <c r="D1020"/>
     </row>
-    <row r="1021" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1021" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1021"/>
       <c r="D1021"/>
     </row>
-    <row r="1022" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1022" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1022"/>
       <c r="D1022"/>
     </row>
-    <row r="1023" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1023" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1023"/>
       <c r="D1023"/>
     </row>
-    <row r="1024" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1024" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1024"/>
       <c r="D1024"/>
     </row>
-    <row r="1025" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1025" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1025"/>
       <c r="D1025"/>
     </row>
-    <row r="1026" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1026" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1026"/>
       <c r="D1026"/>
     </row>
-    <row r="1027" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1027" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1027"/>
       <c r="D1027"/>
     </row>
-    <row r="1028" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1028" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1028"/>
       <c r="D1028"/>
     </row>
-    <row r="1029" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1029" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1029"/>
       <c r="D1029"/>
     </row>
-    <row r="1030" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1030" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1030"/>
       <c r="D1030"/>
     </row>
-    <row r="1031" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1031" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1031"/>
       <c r="D1031"/>
     </row>
-    <row r="1032" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1032" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1032"/>
       <c r="D1032"/>
     </row>
-    <row r="1033" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1033" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1033"/>
       <c r="D1033"/>
     </row>
-    <row r="1034" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1034" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1034"/>
       <c r="D1034"/>
     </row>
-    <row r="1035" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1035" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1035"/>
       <c r="D1035"/>
     </row>
-    <row r="1036" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1036" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1036"/>
       <c r="D1036"/>
     </row>
-    <row r="1037" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1037" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1037"/>
       <c r="D1037"/>
     </row>
-    <row r="1038" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1038" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1038"/>
       <c r="D1038"/>
     </row>
-    <row r="1039" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1039" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1039"/>
       <c r="D1039"/>
     </row>
-    <row r="1040" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1040" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1040"/>
       <c r="D1040"/>
     </row>
-    <row r="1041" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1041" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1041"/>
       <c r="D1041"/>
     </row>
-    <row r="1042" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1042" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1042"/>
       <c r="D1042"/>
     </row>
-    <row r="1043" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1043" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1043"/>
       <c r="D1043"/>
     </row>
-    <row r="1044" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1044" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1044"/>
       <c r="D1044"/>
     </row>
-    <row r="1045" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1045" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1045"/>
       <c r="D1045"/>
     </row>
-    <row r="1046" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1046" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1046"/>
       <c r="D1046"/>
     </row>
-    <row r="1047" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1047" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1047"/>
       <c r="D1047"/>
     </row>
-    <row r="1048" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1048" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1048"/>
       <c r="D1048"/>
     </row>
-    <row r="1049" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1049" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1049"/>
       <c r="D1049"/>
     </row>
-    <row r="1050" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1050" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1050"/>
       <c r="D1050"/>
     </row>
-    <row r="1051" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1051" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1051"/>
       <c r="D1051"/>
     </row>
-    <row r="1052" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1052" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1052"/>
       <c r="D1052"/>
     </row>
-    <row r="1053" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1053" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1053"/>
       <c r="D1053"/>
     </row>
-    <row r="1054" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1054" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1054"/>
       <c r="D1054"/>
     </row>
-    <row r="1055" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1055" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1055"/>
       <c r="D1055"/>
     </row>
-    <row r="1056" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1056" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1056"/>
       <c r="D1056"/>
     </row>
-    <row r="1057" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1057" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1057"/>
       <c r="D1057"/>
     </row>
-    <row r="1058" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1058" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1058"/>
       <c r="D1058"/>
     </row>
-    <row r="1059" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1059" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1059"/>
       <c r="D1059"/>
     </row>
-    <row r="1060" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1060" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1060"/>
       <c r="D1060"/>
     </row>
-    <row r="1061" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1061" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1061"/>
       <c r="D1061"/>
     </row>
-    <row r="1062" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1062" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1062"/>
       <c r="D1062"/>
     </row>
-    <row r="1063" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1063" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1063"/>
       <c r="D1063"/>
     </row>
-    <row r="1064" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1064" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1064"/>
       <c r="D1064"/>
     </row>
-    <row r="1065" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1065" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1065"/>
       <c r="D1065"/>
     </row>
-    <row r="1066" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1066" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1066"/>
       <c r="D1066"/>
     </row>
-    <row r="1067" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1067" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1067"/>
       <c r="D1067"/>
     </row>
-    <row r="1068" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1068" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1068"/>
       <c r="D1068"/>
     </row>
-    <row r="1069" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1069" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1069"/>
       <c r="D1069"/>
     </row>
-    <row r="1070" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1070" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1070"/>
       <c r="D1070"/>
     </row>
-    <row r="1071" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1071" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1071"/>
       <c r="D1071"/>
     </row>
-    <row r="1072" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1072" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1072"/>
       <c r="D1072"/>
     </row>
-    <row r="1073" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1073" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1073"/>
       <c r="D1073"/>
     </row>
-    <row r="1074" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1074" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1074"/>
       <c r="D1074"/>
     </row>
-    <row r="1075" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1075" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1075"/>
       <c r="D1075"/>
     </row>
-    <row r="1076" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1076" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1076"/>
       <c r="D1076"/>
     </row>
-    <row r="1077" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1077" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1077"/>
       <c r="D1077"/>
     </row>
-    <row r="1078" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1078" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1078"/>
       <c r="D1078"/>
     </row>
-    <row r="1079" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1079" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1079"/>
       <c r="D1079"/>
     </row>
-    <row r="1080" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1080" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1080"/>
       <c r="D1080"/>
     </row>
-    <row r="1081" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1081" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1081"/>
       <c r="D1081"/>
     </row>
-    <row r="1082" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1082" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1082"/>
       <c r="D1082"/>
     </row>
-    <row r="1083" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1083" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1083"/>
       <c r="D1083"/>
     </row>
-    <row r="1084" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1084" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1084"/>
       <c r="D1084"/>
     </row>
-    <row r="1085" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1085" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1085"/>
       <c r="D1085"/>
     </row>
-    <row r="1086" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1086" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1086"/>
       <c r="D1086"/>
     </row>
-    <row r="1087" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1087" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1087"/>
       <c r="D1087"/>
     </row>
-    <row r="1088" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1088" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1088"/>
       <c r="D1088"/>
     </row>
-    <row r="1089" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1089" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1089"/>
       <c r="D1089"/>
     </row>
-    <row r="1090" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1090" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1090"/>
       <c r="D1090"/>
     </row>
-    <row r="1091" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1091" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1091"/>
       <c r="D1091"/>
     </row>
-    <row r="1092" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1092" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1092"/>
       <c r="D1092"/>
     </row>
-    <row r="1093" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1093" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1093"/>
       <c r="D1093"/>
     </row>
-    <row r="1094" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1094" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1094"/>
       <c r="D1094"/>
     </row>
-    <row r="1095" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1095" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1095"/>
       <c r="D1095"/>
     </row>
-    <row r="1096" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1096" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1096"/>
       <c r="D1096"/>
     </row>
-    <row r="1097" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1097" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1097"/>
       <c r="D1097"/>
     </row>
-    <row r="1098" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1098" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1098"/>
       <c r="D1098"/>
     </row>
-    <row r="1099" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1099" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1099"/>
       <c r="D1099"/>
     </row>
-    <row r="1100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1100" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1100"/>
       <c r="D1100"/>
     </row>
-    <row r="1101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1101" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1101"/>
       <c r="D1101"/>
     </row>
-    <row r="1102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1102" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1102"/>
       <c r="D1102"/>
     </row>
-    <row r="1103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1103" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1103"/>
       <c r="D1103"/>
     </row>
-    <row r="1104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1104" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1104"/>
       <c r="D1104"/>
     </row>
-    <row r="1105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1105" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1105"/>
       <c r="D1105"/>
     </row>
-    <row r="1106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1106" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1106"/>
       <c r="D1106"/>
     </row>
-    <row r="1107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1107" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1107"/>
       <c r="D1107"/>
     </row>
-    <row r="1108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1108" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1108"/>
       <c r="D1108"/>
     </row>
-    <row r="1109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1109" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1109"/>
       <c r="D1109"/>
     </row>
-    <row r="1110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1110" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1110"/>
       <c r="D1110"/>
     </row>
-    <row r="1111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1111" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1111"/>
       <c r="D1111"/>
     </row>
-    <row r="1112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1112" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1112"/>
       <c r="D1112"/>
     </row>
-    <row r="1113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1113" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1113"/>
       <c r="D1113"/>
     </row>
-    <row r="1114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1114" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1114"/>
       <c r="D1114"/>
     </row>
-    <row r="1115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1115" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1115"/>
       <c r="D1115"/>
     </row>
-    <row r="1116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1116" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1116"/>
       <c r="D1116"/>
     </row>
-    <row r="1117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1117" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1117"/>
       <c r="D1117"/>
     </row>
-    <row r="1118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1118" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1118"/>
       <c r="D1118"/>
     </row>
-    <row r="1119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1119" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1119"/>
       <c r="D1119"/>
     </row>
-    <row r="1120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1120" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1120"/>
       <c r="D1120"/>
     </row>
-    <row r="1121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1121" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1121"/>
       <c r="D1121"/>
     </row>
-    <row r="1122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1122" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1122"/>
       <c r="D1122"/>
     </row>
-    <row r="1123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1123" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1123"/>
       <c r="D1123"/>
     </row>
-    <row r="1124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1124" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1124"/>
       <c r="D1124"/>
     </row>
-    <row r="1125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1125" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1125"/>
       <c r="D1125"/>
     </row>
-    <row r="1126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1126" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1126"/>
       <c r="D1126"/>
     </row>
-    <row r="1127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1127" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1127"/>
       <c r="D1127"/>
     </row>
-    <row r="1128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1128" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1128"/>
       <c r="D1128"/>
     </row>
-    <row r="1129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1129" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1129"/>
       <c r="D1129"/>
     </row>
-    <row r="1130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1130" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1130"/>
       <c r="D1130"/>
     </row>
-    <row r="1131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1131" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1131"/>
       <c r="D1131"/>
     </row>
-    <row r="1132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1132" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1132"/>
       <c r="D1132"/>
     </row>
-    <row r="1133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1133" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1133"/>
       <c r="D1133"/>
     </row>
-    <row r="1134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1134" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1134"/>
       <c r="D1134"/>
     </row>
-    <row r="1135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1135" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1135"/>
       <c r="D1135"/>
     </row>
-    <row r="1136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1136" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1136"/>
       <c r="D1136"/>
     </row>
-    <row r="1137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1137" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1137"/>
       <c r="D1137"/>
     </row>
-    <row r="1138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1138" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1138"/>
       <c r="D1138"/>
     </row>
-    <row r="1139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1139" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1139"/>
       <c r="D1139"/>
     </row>
-    <row r="1140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1140" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1140"/>
       <c r="D1140"/>
     </row>
-    <row r="1141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1141" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1141"/>
       <c r="D1141"/>
     </row>
-    <row r="1142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1142" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1142"/>
       <c r="D1142"/>
     </row>
-    <row r="1143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1143" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1143"/>
       <c r="D1143"/>
     </row>
-    <row r="1144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1144" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1144"/>
       <c r="D1144"/>
     </row>
-    <row r="1145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1145" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1145"/>
       <c r="D1145"/>
     </row>
-    <row r="1146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1146" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1146"/>
       <c r="D1146"/>
     </row>
-    <row r="1147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1147" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1147"/>
       <c r="D1147"/>
     </row>
-    <row r="1148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1148" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1148"/>
       <c r="D1148"/>
     </row>
-    <row r="1149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1149" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1149"/>
       <c r="D1149"/>
     </row>
-    <row r="1150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1150" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1150"/>
       <c r="D1150"/>
     </row>
-    <row r="1151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1151" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1151"/>
       <c r="D1151"/>
     </row>
-    <row r="1152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1152" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1152"/>
       <c r="D1152"/>
     </row>
-    <row r="1153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1153" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1153"/>
       <c r="D1153"/>
     </row>
-    <row r="1154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1154" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1154"/>
       <c r="D1154"/>
     </row>
-    <row r="1155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1155" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1155"/>
       <c r="D1155"/>
     </row>
-    <row r="1156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1156" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1156"/>
       <c r="D1156"/>
     </row>
-    <row r="1157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1157" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1157"/>
       <c r="D1157"/>
     </row>
-    <row r="1158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1158" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1158"/>
       <c r="D1158"/>
     </row>
-    <row r="1159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1159" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1159"/>
       <c r="D1159"/>
     </row>
-    <row r="1160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1160" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1160"/>
       <c r="D1160"/>
     </row>
-    <row r="1161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1161" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1161"/>
       <c r="D1161"/>
     </row>
-    <row r="1162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1162" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1162"/>
       <c r="D1162"/>
     </row>
-    <row r="1163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1163" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1163"/>
       <c r="D1163"/>
     </row>
-    <row r="1164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1164" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1164"/>
       <c r="D1164"/>
     </row>
-    <row r="1165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1165" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1165"/>
       <c r="D1165"/>
     </row>
-    <row r="1166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1166" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1166"/>
       <c r="D1166"/>
     </row>
-    <row r="1167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1167" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1167"/>
       <c r="D1167"/>
     </row>
-    <row r="1168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1168" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1168"/>
       <c r="D1168"/>
     </row>
-    <row r="1169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1169" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1169"/>
       <c r="D1169"/>
     </row>
-    <row r="1170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1170" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1170"/>
       <c r="D1170"/>
     </row>
-    <row r="1171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1171" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1171"/>
       <c r="D1171"/>
     </row>
-    <row r="1172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1172" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1172"/>
       <c r="D1172"/>
     </row>
-    <row r="1173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1173" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1173"/>
       <c r="D1173"/>
     </row>
-    <row r="1174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1174" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1174"/>
       <c r="D1174"/>
     </row>
-    <row r="1175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1175" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1175"/>
       <c r="D1175"/>
     </row>
-    <row r="1176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1176" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1176"/>
       <c r="D1176"/>
     </row>
-    <row r="1177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1177" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1177"/>
       <c r="D1177"/>
     </row>
-    <row r="1178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1178" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1178"/>
       <c r="D1178"/>
     </row>
-    <row r="1179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1179" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1179"/>
       <c r="D1179"/>
     </row>
-    <row r="1180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1180" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1180"/>
       <c r="D1180"/>
     </row>
-    <row r="1181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1181" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1181"/>
       <c r="D1181"/>
     </row>
-    <row r="1182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1182" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1182"/>
       <c r="D1182"/>
     </row>
-    <row r="1183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1183" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1183"/>
       <c r="D1183"/>
     </row>
-    <row r="1184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1184" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1184"/>
       <c r="D1184"/>
     </row>
-    <row r="1185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1185" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1185"/>
       <c r="D1185"/>
     </row>
-    <row r="1186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1186" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1186"/>
       <c r="D1186"/>
     </row>
-    <row r="1187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1187" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1187"/>
       <c r="D1187"/>
     </row>
-    <row r="1188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1188" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1188"/>
       <c r="D1188"/>
     </row>
-    <row r="1189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1189" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1189"/>
       <c r="D1189"/>
     </row>
-    <row r="1190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1190" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1190"/>
       <c r="D1190"/>
     </row>
-    <row r="1191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1191" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1191"/>
       <c r="D1191"/>
     </row>
-    <row r="1192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1192" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1192"/>
       <c r="D1192"/>
     </row>
-    <row r="1193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1193" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1193"/>
       <c r="D1193"/>
     </row>
-    <row r="1194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1194" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1194"/>
       <c r="D1194"/>
     </row>
-    <row r="1195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1195" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1195"/>
       <c r="D1195"/>
     </row>
-    <row r="1196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1196" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1196"/>
       <c r="D1196"/>
     </row>
-    <row r="1197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1197" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1197"/>
       <c r="D1197"/>
     </row>
-    <row r="1198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1198" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1198"/>
       <c r="D1198"/>
     </row>
-    <row r="1199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1199" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1199"/>
       <c r="D1199"/>
     </row>
-    <row r="1200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1200" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1200"/>
       <c r="D1200"/>
     </row>
-    <row r="1201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1201" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1201"/>
       <c r="D1201"/>
     </row>
-    <row r="1202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1202" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1202"/>
       <c r="D1202"/>
     </row>
-    <row r="1203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1203" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1203"/>
       <c r="D1203"/>
     </row>
-    <row r="1204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1204" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1204"/>
       <c r="D1204"/>
     </row>
-    <row r="1205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1205" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1205"/>
       <c r="D1205"/>
     </row>
-    <row r="1206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1206" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1206"/>
       <c r="D1206"/>
     </row>
-    <row r="1207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1207" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1207"/>
       <c r="D1207"/>
     </row>
-    <row r="1208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1208" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1208"/>
       <c r="D1208"/>
     </row>
-    <row r="1209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1209" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1209"/>
       <c r="D1209"/>
     </row>
-    <row r="1210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1210" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1210"/>
       <c r="D1210"/>
     </row>
-    <row r="1211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1211" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1211"/>
       <c r="D1211"/>
     </row>
-    <row r="1212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1212" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1212"/>
       <c r="D1212"/>
     </row>
-    <row r="1213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1213" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1213"/>
       <c r="D1213"/>
     </row>
-    <row r="1214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1214" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1214"/>
       <c r="D1214"/>
     </row>
-    <row r="1215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1215" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1215"/>
       <c r="D1215"/>
     </row>
-    <row r="1216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1216" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1216"/>
       <c r="D1216"/>
     </row>
-    <row r="1217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1217" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1217"/>
       <c r="D1217"/>
     </row>
-    <row r="1218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1218" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1218"/>
       <c r="D1218"/>
     </row>
-    <row r="1219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1219" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1219"/>
       <c r="D1219"/>
     </row>
-    <row r="1220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1220" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1220"/>
       <c r="D1220"/>
     </row>
-    <row r="1221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1221" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1221"/>
       <c r="D1221"/>
     </row>
-    <row r="1222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1222" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1222"/>
       <c r="D1222"/>
     </row>
-    <row r="1223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1223" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1223"/>
       <c r="D1223"/>
     </row>
-    <row r="1224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1224" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1224"/>
       <c r="D1224"/>
     </row>
-    <row r="1225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1225" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1225"/>
       <c r="D1225"/>
     </row>
-    <row r="1226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1226" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1226"/>
       <c r="D1226"/>
     </row>
-    <row r="1227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1227" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1227"/>
       <c r="D1227"/>
     </row>
-    <row r="1228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1228" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1228"/>
       <c r="D1228"/>
     </row>
-    <row r="1229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1229" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1229"/>
       <c r="D1229"/>
     </row>
-    <row r="1230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1230" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1230"/>
       <c r="D1230"/>
     </row>
-    <row r="1231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1231" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1231"/>
       <c r="D1231"/>
     </row>
-    <row r="1232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1232" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1232"/>
       <c r="D1232"/>
     </row>
-    <row r="1233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1233" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1233"/>
       <c r="D1233"/>
     </row>
-    <row r="1234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1234" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1234"/>
       <c r="D1234"/>
     </row>
-    <row r="1235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1235" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1235"/>
       <c r="D1235"/>
     </row>
-    <row r="1236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1236" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1236"/>
       <c r="D1236"/>
     </row>
-    <row r="1237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1237" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1237"/>
       <c r="D1237"/>
     </row>
-    <row r="1238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1238" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1238"/>
       <c r="D1238"/>
     </row>
-    <row r="1239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1239" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1239"/>
       <c r="D1239"/>
     </row>
-    <row r="1240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1240" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1240"/>
       <c r="D1240"/>
     </row>
-    <row r="1241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1241" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1241"/>
       <c r="D1241"/>
     </row>
-    <row r="1242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1242" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1242"/>
       <c r="D1242"/>
     </row>
-    <row r="1243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1243" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1243"/>
       <c r="D1243"/>
     </row>
-    <row r="1244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1244" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1244"/>
       <c r="D1244"/>
     </row>
-    <row r="1245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1245" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1245"/>
       <c r="D1245"/>
     </row>
-    <row r="1246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1246" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1246"/>
       <c r="D1246"/>
     </row>
-    <row r="1247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1247" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1247"/>
       <c r="D1247"/>
     </row>
-    <row r="1248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1248" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1248"/>
       <c r="D1248"/>
     </row>
-    <row r="1249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1249" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1249"/>
       <c r="D1249"/>
     </row>
-    <row r="1250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1250" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1250"/>
       <c r="D1250"/>
     </row>
-    <row r="1251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1251" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1251"/>
       <c r="D1251"/>
     </row>
-    <row r="1252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1252" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1252"/>
       <c r="D1252"/>
     </row>
-    <row r="1253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1253" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1253"/>
       <c r="D1253"/>
     </row>
-    <row r="1254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1254" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1254"/>
       <c r="D1254"/>
     </row>
-    <row r="1255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1255" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1255"/>
       <c r="D1255"/>
     </row>
-    <row r="1256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1256" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1256"/>
       <c r="D1256"/>
     </row>
-    <row r="1257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1257" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1257"/>
       <c r="D1257"/>
     </row>
-    <row r="1258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1258" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1258"/>
       <c r="D1258"/>
     </row>
-    <row r="1259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1259" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1259"/>
       <c r="D1259"/>
     </row>
-    <row r="1260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1260" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1260"/>
       <c r="D1260"/>
     </row>
-    <row r="1261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1261" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1261"/>
       <c r="D1261"/>
     </row>
-    <row r="1262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1262" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1262"/>
       <c r="D1262"/>
     </row>
-    <row r="1263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1263" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1263"/>
       <c r="D1263"/>
     </row>
-    <row r="1264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1264" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1264"/>
       <c r="D1264"/>
     </row>
-    <row r="1265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1265" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1265"/>
       <c r="D1265"/>
     </row>
-    <row r="1266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1266" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1266"/>
       <c r="D1266"/>
     </row>
-    <row r="1267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1267" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1267"/>
       <c r="D1267"/>
     </row>
-    <row r="1268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1268" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1268"/>
       <c r="D1268"/>
     </row>
-    <row r="1269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1269" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1269"/>
       <c r="D1269"/>
     </row>
-    <row r="1270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1270" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1270"/>
       <c r="D1270"/>
     </row>
-    <row r="1271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1271" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1271"/>
       <c r="D1271"/>
     </row>
-    <row r="1272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1272" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1272"/>
       <c r="D1272"/>
     </row>
-    <row r="1273" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1273" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1273"/>
       <c r="D1273"/>
     </row>
-    <row r="1274" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1274" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1274"/>
       <c r="D1274"/>
     </row>
-    <row r="1275" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1275" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1275"/>
       <c r="D1275"/>
     </row>
-    <row r="1276" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1276" spans="1:4" ht="16" x14ac:dyDescent="0.2">
       <c r="A1276"/>
       <c r="D1276"/>
     </row>
